--- a/examples/Config/Excel/Server/WorldConfig.xlsx
+++ b/examples/Config/Excel/Server/WorldConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Lessons/RougeLike/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885491A7-25F3-FC43-AE35-52ED25A6B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E5610-C7C8-6C46-B08B-A1A4453D67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldConfig" sheetId="8" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>连接字符串</t>
-  </si>
-  <si>
-    <t>数据库名称</t>
-  </si>
-  <si>
     <t>数据库类型</t>
   </si>
   <si>
@@ -97,7 +91,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>mongodb://127.0.0.1</t>
+    <t>数据库名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连接字符串</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不需要数据库可以不填写空白就可以</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +540,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -558,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -621,48 +623,50 @@
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="16">
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16">
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -675,16 +679,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="8">
         <v>1</v>

--- a/examples/Config/Excel/Server/WorldConfig.xlsx
+++ b/examples/Config/Excel/Server/WorldConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E5610-C7C8-6C46-B08B-A1A4453D67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9582E-36FE-E042-9823-C21BA2792C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -31,9 +31,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>数据库类型</t>
   </si>
   <si>
-    <t>是否游戏服</t>
-  </si>
-  <si>
     <t>Side</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>DbType</t>
-  </si>
-  <si>
-    <t>IsGameWorld</t>
   </si>
   <si>
     <t>备注</t>
@@ -151,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +164,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39945677053132728"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39948728904080327"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -248,9 +233,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,10 +519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -549,18 +531,18 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="68.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
+      <c r="C1" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -574,24 +556,20 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -608,70 +586,60 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="16">
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
+      <c r="B6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="16">
-      <c r="B6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -679,17 +647,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/Server/WorldConfig.xlsx
+++ b/examples/Config/Excel/Server/WorldConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B9582E-36FE-E042-9823-C21BA2792C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ACA138-8EBB-A04E-81DE-3259CD2C56B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
